--- a/stock_historical_data/1wk/ANDHRAPAP.NS.xlsx
+++ b/stock_historical_data/1wk/ANDHRAPAP.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1488"/>
+  <dimension ref="A1:R1523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -5059,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -83741,7 +83741,9 @@
       <c r="Q1487" t="n">
         <v>0</v>
       </c>
-      <c r="R1487" t="inlineStr"/>
+      <c r="R1487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1488">
       <c r="A1488" s="2" t="n">
@@ -83787,7 +83789,7 @@
         <v>26</v>
       </c>
       <c r="O1488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1488" t="n">
         <v>0</v>
@@ -83795,7 +83797,1829 @@
       <c r="Q1488" t="n">
         <v>0</v>
       </c>
-      <c r="R1488" t="inlineStr"/>
+      <c r="R1488" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>112.0035855861134</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>125.7804749323198</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>111.9839281885289</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>119.8059005737305</v>
+      </c>
+      <c r="F1489" t="inlineStr"/>
+      <c r="G1489" t="n">
+        <v>12079525</v>
+      </c>
+      <c r="H1489" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1489" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1489" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1489" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1489" t="inlineStr"/>
+    </row>
+    <row r="1490">
+      <c r="A1490" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>119.8452059548728</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>120.9949162908573</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>112.0428835949534</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>116.1307525634766</v>
+      </c>
+      <c r="F1490" t="inlineStr"/>
+      <c r="G1490" t="n">
+        <v>3674680</v>
+      </c>
+      <c r="H1490" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1490" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1490" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1490" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1490" t="inlineStr"/>
+    </row>
+    <row r="1491">
+      <c r="A1491" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>116.130748787306</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>116.9856656103444</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>109.2816079959834</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>111.8856582641602</v>
+      </c>
+      <c r="F1491" t="inlineStr"/>
+      <c r="G1491" t="n">
+        <v>3150400</v>
+      </c>
+      <c r="H1491" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1491" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1491" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1491" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1491" t="inlineStr"/>
+    </row>
+    <row r="1492">
+      <c r="A1492" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>111.2371025912727</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>114.9515634747966</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>108.7509741340686</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>112.0134048461914</v>
+      </c>
+      <c r="F1492" t="inlineStr"/>
+      <c r="G1492" t="n">
+        <v>3669385</v>
+      </c>
+      <c r="H1492" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1492" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1492" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1492" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1492" t="inlineStr"/>
+    </row>
+    <row r="1493">
+      <c r="A1493" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>113.2024245430765</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>115.9538754335605</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>111.0995328256596</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>113.3399963378906</v>
+      </c>
+      <c r="F1493" t="inlineStr"/>
+      <c r="G1493" t="n">
+        <v>2414880</v>
+      </c>
+      <c r="H1493" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1493" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1493" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1493" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1493" t="inlineStr"/>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>109.8613868548864</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>112.0232357745014</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>104.6434573536773</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>108.102424621582</v>
+      </c>
+      <c r="F1494" t="inlineStr"/>
+      <c r="G1494" t="n">
+        <v>3705630</v>
+      </c>
+      <c r="H1494" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1494" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1494" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1494" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1494" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1494" t="inlineStr"/>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>108.7399978637695</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>109.8000030517578</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>103.0100021362305</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="F1495" t="inlineStr"/>
+      <c r="G1495" t="n">
+        <v>1267305</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1495" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1495" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1495" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1495" t="inlineStr"/>
+    </row>
+    <row r="1496">
+      <c r="A1496" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>104.5100021362305</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>116.4199981689453</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>104.1100006103516</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>113.4300003051758</v>
+      </c>
+      <c r="F1496" t="inlineStr"/>
+      <c r="G1496" t="n">
+        <v>4753760</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1496" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1496" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1496" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1496" t="inlineStr"/>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>113.8000030517578</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>116.4000015258789</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>112.2200012207031</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>113.0800018310547</v>
+      </c>
+      <c r="F1497" t="inlineStr"/>
+      <c r="G1497" t="n">
+        <v>1862210</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1497" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1497" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1497" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1497" t="inlineStr"/>
+    </row>
+    <row r="1498">
+      <c r="A1498" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>113.2399978637695</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>116.3099975585938</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>111.620002746582</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>112.8899993896484</v>
+      </c>
+      <c r="F1498" t="inlineStr"/>
+      <c r="G1498" t="n">
+        <v>2077830</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1498" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1498" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1498" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1498" t="inlineStr"/>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>113.8000030517578</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>118.4000015258789</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>104.5999984741211</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>105.9000015258789</v>
+      </c>
+      <c r="F1499" t="inlineStr"/>
+      <c r="G1499" t="n">
+        <v>6417748</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1499" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1499" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1499" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1499" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1499" t="inlineStr"/>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>106.75</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>108.8499984741211</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>102.5500030517578</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>103.8499984741211</v>
+      </c>
+      <c r="F1500" t="inlineStr"/>
+      <c r="G1500" t="n">
+        <v>1546762</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1500" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1500" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1500" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1500" t="inlineStr"/>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>104.0999984741211</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>107.3000030517578</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>103.9499969482422</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>106.6999969482422</v>
+      </c>
+      <c r="F1501" t="inlineStr"/>
+      <c r="G1501" t="n">
+        <v>1060821</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1501" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1501" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1501" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1501" t="inlineStr"/>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>106.75</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>106.9499969482422</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>101</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>104.3199996948242</v>
+      </c>
+      <c r="F1502" t="inlineStr"/>
+      <c r="G1502" t="n">
+        <v>992867</v>
+      </c>
+      <c r="H1502" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1502" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1502" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1502" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1502" t="inlineStr"/>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>104.8000030517578</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>104.8000030517578</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>102.379997253418</v>
+      </c>
+      <c r="F1503" t="inlineStr"/>
+      <c r="G1503" t="n">
+        <v>1156807</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1503" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1503" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1503" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1503" t="inlineStr"/>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>102.379997253418</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>105.9000015258789</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>100.0299987792969</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>101.3899993896484</v>
+      </c>
+      <c r="F1504" t="inlineStr"/>
+      <c r="G1504" t="n">
+        <v>782664</v>
+      </c>
+      <c r="H1504" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1504" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1504" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1504" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1504" t="inlineStr"/>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>102</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>102</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>92.05000305175781</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>93.98999786376953</v>
+      </c>
+      <c r="F1505" t="inlineStr"/>
+      <c r="G1505" t="n">
+        <v>1178744</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1505" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1505" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1505" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1505" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1505" t="inlineStr"/>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>94.69999694824219</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>100.8000030517578</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>92.44000244140625</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>99.62999725341797</v>
+      </c>
+      <c r="F1506" t="inlineStr"/>
+      <c r="G1506" t="n">
+        <v>516522</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1506" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1506" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1506" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1506" t="inlineStr"/>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>102.3499984741211</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>102.5899963378906</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>95.69999694824219</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>97.20999908447266</v>
+      </c>
+      <c r="F1507" t="inlineStr"/>
+      <c r="G1507" t="n">
+        <v>1009914</v>
+      </c>
+      <c r="H1507" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1507" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1507" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1507" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1507" t="inlineStr"/>
+    </row>
+    <row r="1508">
+      <c r="A1508" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>97.16000366210938</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>97.80000305175781</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>92.69999694824219</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>93.33999633789062</v>
+      </c>
+      <c r="F1508" t="inlineStr"/>
+      <c r="G1508" t="n">
+        <v>685712</v>
+      </c>
+      <c r="H1508" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1508" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1508" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1508" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1508" t="inlineStr"/>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>93.36000061035156</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>90.44999694824219</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>93.38999938964844</v>
+      </c>
+      <c r="F1509" t="inlineStr"/>
+      <c r="G1509" t="n">
+        <v>443716</v>
+      </c>
+      <c r="H1509" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1509" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1509" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1509" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1509" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1509" t="inlineStr"/>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>95.84999847412109</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>101</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>93.80000305175781</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>98.62999725341797</v>
+      </c>
+      <c r="F1510" t="inlineStr"/>
+      <c r="G1510" t="n">
+        <v>553592</v>
+      </c>
+      <c r="H1510" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1510" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1510" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1510" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1510" t="inlineStr"/>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>98.62999725341797</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>105.6999969482422</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>97.55999755859375</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>103.5599975585938</v>
+      </c>
+      <c r="F1511" t="inlineStr"/>
+      <c r="G1511" t="n">
+        <v>1876418</v>
+      </c>
+      <c r="H1511" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1511" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1511" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1511" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1511" t="inlineStr"/>
+    </row>
+    <row r="1512">
+      <c r="A1512" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>103.5599975585938</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>105.3600006103516</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>98.23999786376953</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>99.98999786376953</v>
+      </c>
+      <c r="F1512" t="inlineStr"/>
+      <c r="G1512" t="n">
+        <v>574793</v>
+      </c>
+      <c r="H1512" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1512" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1512" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1512" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1512" t="inlineStr"/>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>99.98999786376953</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>107.9899978637695</v>
+      </c>
+      <c r="D1513" t="n">
+        <v>95.09999847412109</v>
+      </c>
+      <c r="E1513" t="n">
+        <v>96.91000366210938</v>
+      </c>
+      <c r="F1513" t="inlineStr"/>
+      <c r="G1513" t="n">
+        <v>2352085</v>
+      </c>
+      <c r="H1513" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1513" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1513" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1513" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1513" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1513" t="inlineStr"/>
+    </row>
+    <row r="1514">
+      <c r="A1514" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>97.98000335693359</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>99.12000274658203</v>
+      </c>
+      <c r="D1514" t="n">
+        <v>93.59999847412109</v>
+      </c>
+      <c r="E1514" t="n">
+        <v>95.48000335693359</v>
+      </c>
+      <c r="F1514" t="inlineStr"/>
+      <c r="G1514" t="n">
+        <v>607249</v>
+      </c>
+      <c r="H1514" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1514" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1514" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1514" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1514" t="inlineStr"/>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>95.48999786376953</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>96.40000152587891</v>
+      </c>
+      <c r="D1515" t="n">
+        <v>92.51999664306641</v>
+      </c>
+      <c r="E1515" t="n">
+        <v>95.31999969482422</v>
+      </c>
+      <c r="F1515" t="inlineStr"/>
+      <c r="G1515" t="n">
+        <v>809083</v>
+      </c>
+      <c r="H1515" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1515" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1515" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1515" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1515" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1515" t="inlineStr"/>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>94.05000305175781</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>97.01000213623047</v>
+      </c>
+      <c r="D1516" t="n">
+        <v>90.05000305175781</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>91.29000091552734</v>
+      </c>
+      <c r="F1516" t="inlineStr"/>
+      <c r="G1516" t="n">
+        <v>1096509</v>
+      </c>
+      <c r="H1516" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1516" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1516" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1516" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1516" t="inlineStr"/>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>90.09999847412109</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>91.80000305175781</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>88.41999816894531</v>
+      </c>
+      <c r="E1517" t="n">
+        <v>89.66000366210938</v>
+      </c>
+      <c r="F1517" t="inlineStr"/>
+      <c r="G1517" t="n">
+        <v>594958</v>
+      </c>
+      <c r="H1517" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1517" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1517" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1517" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1517" t="inlineStr"/>
+    </row>
+    <row r="1518">
+      <c r="A1518" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1518" t="n">
+        <v>89</v>
+      </c>
+      <c r="C1518" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="D1518" t="n">
+        <v>84.80000305175781</v>
+      </c>
+      <c r="E1518" t="n">
+        <v>85.95999908447266</v>
+      </c>
+      <c r="F1518" t="inlineStr"/>
+      <c r="G1518" t="n">
+        <v>826600</v>
+      </c>
+      <c r="H1518" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1518" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1518" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1518" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1518" t="inlineStr"/>
+    </row>
+    <row r="1519">
+      <c r="A1519" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1519" t="n">
+        <v>85.09999847412109</v>
+      </c>
+      <c r="C1519" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="D1519" t="n">
+        <v>82.62000274658203</v>
+      </c>
+      <c r="E1519" t="n">
+        <v>86.45999908447266</v>
+      </c>
+      <c r="F1519" t="inlineStr"/>
+      <c r="G1519" t="n">
+        <v>498557</v>
+      </c>
+      <c r="H1519" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1519" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1519" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1519" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1519" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1519" t="inlineStr"/>
+    </row>
+    <row r="1520">
+      <c r="A1520" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1520" t="n">
+        <v>85.34999847412109</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>89</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>82.75</v>
+      </c>
+      <c r="E1520" t="n">
+        <v>85.26999664306641</v>
+      </c>
+      <c r="F1520" t="inlineStr"/>
+      <c r="G1520" t="n">
+        <v>587402</v>
+      </c>
+      <c r="H1520" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1520" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1520" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1520" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1520" t="inlineStr"/>
+    </row>
+    <row r="1521">
+      <c r="A1521" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1521" t="n">
+        <v>84</v>
+      </c>
+      <c r="C1521" t="n">
+        <v>85.08000183105469</v>
+      </c>
+      <c r="D1521" t="n">
+        <v>77</v>
+      </c>
+      <c r="E1521" t="n">
+        <v>79.48999786376953</v>
+      </c>
+      <c r="F1521" t="inlineStr"/>
+      <c r="G1521" t="n">
+        <v>714201</v>
+      </c>
+      <c r="H1521" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1521" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1521" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1521" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1521" t="inlineStr"/>
+    </row>
+    <row r="1522">
+      <c r="A1522" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1522" t="n">
+        <v>79.90000152587891</v>
+      </c>
+      <c r="C1522" t="n">
+        <v>80.94999694824219</v>
+      </c>
+      <c r="D1522" t="n">
+        <v>76</v>
+      </c>
+      <c r="E1522" t="n">
+        <v>76.27999877929688</v>
+      </c>
+      <c r="F1522" t="inlineStr"/>
+      <c r="G1522" t="n">
+        <v>736131</v>
+      </c>
+      <c r="H1522" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1522" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1522" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1522" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1522" t="inlineStr"/>
+    </row>
+    <row r="1523">
+      <c r="A1523" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>76.27999877929688</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>82.98000335693359</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>73.01999664306641</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>75.72000122070312</v>
+      </c>
+      <c r="F1523" t="inlineStr"/>
+      <c r="G1523" t="n">
+        <v>818759</v>
+      </c>
+      <c r="H1523" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1523" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1523" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1523" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1523" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/ANDHRAPAP.NS.xlsx
+++ b/stock_historical_data/1wk/ANDHRAPAP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1523"/>
+  <dimension ref="A1:R1532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5560,13 +5560,13 @@
         <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q91" t="n">
         <v>2</v>
       </c>
       <c r="R91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -6630,7 +6630,7 @@
         <v>1</v>
       </c>
       <c r="R110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -6798,7 +6798,7 @@
         <v>2</v>
       </c>
       <c r="R113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -7078,7 +7078,7 @@
         <v>1</v>
       </c>
       <c r="R118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -7134,7 +7134,7 @@
         <v>1</v>
       </c>
       <c r="R119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -7694,7 +7694,7 @@
         <v>2</v>
       </c>
       <c r="R129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -8758,7 +8758,7 @@
         <v>1</v>
       </c>
       <c r="R148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -9150,7 +9150,7 @@
         <v>2</v>
       </c>
       <c r="R155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -9766,7 +9766,7 @@
         <v>2</v>
       </c>
       <c r="R166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -10606,7 +10606,7 @@
         <v>1</v>
       </c>
       <c r="R181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -11502,7 +11502,7 @@
         <v>1</v>
       </c>
       <c r="R197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -11614,7 +11614,7 @@
         <v>2</v>
       </c>
       <c r="R199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -11894,7 +11894,7 @@
         <v>1</v>
       </c>
       <c r="R204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -12342,7 +12342,7 @@
         <v>2</v>
       </c>
       <c r="R212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
@@ -13182,7 +13182,7 @@
         <v>1</v>
       </c>
       <c r="R227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -13350,7 +13350,7 @@
         <v>2</v>
       </c>
       <c r="R230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231">
@@ -13742,7 +13742,7 @@
         <v>1</v>
       </c>
       <c r="R237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -14190,7 +14190,7 @@
         <v>2</v>
       </c>
       <c r="R245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246">
@@ -14414,7 +14414,7 @@
         <v>1</v>
       </c>
       <c r="R249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -14918,7 +14918,7 @@
         <v>2</v>
       </c>
       <c r="R258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259">
@@ -14974,7 +14974,7 @@
         <v>2</v>
       </c>
       <c r="R259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260">
@@ -16094,7 +16094,7 @@
         <v>1</v>
       </c>
       <c r="R279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -16710,7 +16710,7 @@
         <v>2</v>
       </c>
       <c r="R290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291">
@@ -17830,7 +17830,7 @@
         <v>1</v>
       </c>
       <c r="R310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -17886,7 +17886,7 @@
         <v>1</v>
       </c>
       <c r="R311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -17942,7 +17942,7 @@
         <v>1</v>
       </c>
       <c r="R312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -17998,7 +17998,7 @@
         <v>1</v>
       </c>
       <c r="R313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -19174,7 +19174,7 @@
         <v>2</v>
       </c>
       <c r="R334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335">
@@ -25054,7 +25054,7 @@
         <v>1</v>
       </c>
       <c r="R439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
@@ -25110,7 +25110,7 @@
         <v>1</v>
       </c>
       <c r="R440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
@@ -25166,7 +25166,7 @@
         <v>1</v>
       </c>
       <c r="R441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
@@ -25222,7 +25222,7 @@
         <v>1</v>
       </c>
       <c r="R442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
@@ -25782,7 +25782,7 @@
         <v>1</v>
       </c>
       <c r="R452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -26510,7 +26510,7 @@
         <v>2</v>
       </c>
       <c r="R465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466">
@@ -26734,7 +26734,7 @@
         <v>1</v>
       </c>
       <c r="R469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
@@ -27238,7 +27238,7 @@
         <v>2</v>
       </c>
       <c r="R478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479">
@@ -27406,7 +27406,7 @@
         <v>1</v>
       </c>
       <c r="R481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
@@ -27798,7 +27798,7 @@
         <v>2</v>
       </c>
       <c r="R488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489">
@@ -28022,7 +28022,7 @@
         <v>1</v>
       </c>
       <c r="R492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
@@ -29254,7 +29254,7 @@
         <v>2</v>
       </c>
       <c r="R514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515">
@@ -29534,7 +29534,7 @@
         <v>1</v>
       </c>
       <c r="R519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
@@ -30318,7 +30318,7 @@
         <v>2</v>
       </c>
       <c r="R533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534">
@@ -30374,7 +30374,7 @@
         <v>1</v>
       </c>
       <c r="R534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535">
@@ -30878,7 +30878,7 @@
         <v>1</v>
       </c>
       <c r="R543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
@@ -31046,7 +31046,7 @@
         <v>2</v>
       </c>
       <c r="R546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547">
@@ -31382,7 +31382,7 @@
         <v>1</v>
       </c>
       <c r="R552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
@@ -31606,7 +31606,7 @@
         <v>2</v>
       </c>
       <c r="R556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557">
@@ -32782,7 +32782,7 @@
         <v>1</v>
       </c>
       <c r="R577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
@@ -33398,7 +33398,7 @@
         <v>2</v>
       </c>
       <c r="R588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589">
@@ -34070,7 +34070,7 @@
         <v>1</v>
       </c>
       <c r="R600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601">
@@ -34182,7 +34182,7 @@
         <v>2</v>
       </c>
       <c r="R602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603">
@@ -36198,7 +36198,7 @@
         <v>1</v>
       </c>
       <c r="R638" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639">
@@ -36646,7 +36646,7 @@
         <v>1</v>
       </c>
       <c r="R646" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647">
@@ -37430,7 +37430,7 @@
         <v>1</v>
       </c>
       <c r="R660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661">
@@ -37990,7 +37990,7 @@
         <v>2</v>
       </c>
       <c r="R670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671">
@@ -38382,7 +38382,7 @@
         <v>1</v>
       </c>
       <c r="R677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678">
@@ -38942,7 +38942,7 @@
         <v>2</v>
       </c>
       <c r="R687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688">
@@ -39166,7 +39166,7 @@
         <v>1</v>
       </c>
       <c r="R691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692">
@@ -39390,7 +39390,7 @@
         <v>2</v>
       </c>
       <c r="R695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696">
@@ -40230,7 +40230,7 @@
         <v>2</v>
       </c>
       <c r="R710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711">
@@ -40622,7 +40622,7 @@
         <v>2</v>
       </c>
       <c r="R717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718">
@@ -40734,7 +40734,7 @@
         <v>1</v>
       </c>
       <c r="R719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720">
@@ -41742,7 +41742,7 @@
         <v>2</v>
       </c>
       <c r="R737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738">
@@ -42526,7 +42526,7 @@
         <v>1</v>
       </c>
       <c r="R751" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752">
@@ -43814,7 +43814,7 @@
         <v>2</v>
       </c>
       <c r="R774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775">
@@ -44318,7 +44318,7 @@
         <v>2</v>
       </c>
       <c r="R783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784">
@@ -44598,7 +44598,7 @@
         <v>1</v>
       </c>
       <c r="R788" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789">
@@ -44822,7 +44822,7 @@
         <v>2</v>
       </c>
       <c r="R792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793">
@@ -45046,7 +45046,7 @@
         <v>1</v>
       </c>
       <c r="R796" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797">
@@ -45494,7 +45494,7 @@
         <v>2</v>
       </c>
       <c r="R804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805">
@@ -45886,7 +45886,7 @@
         <v>1</v>
       </c>
       <c r="R811" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812">
@@ -46558,7 +46558,7 @@
         <v>2</v>
       </c>
       <c r="R823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824">
@@ -47678,7 +47678,7 @@
         <v>1</v>
       </c>
       <c r="R843" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844">
@@ -47846,7 +47846,7 @@
         <v>2</v>
       </c>
       <c r="R846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847">
@@ -48574,7 +48574,7 @@
         <v>2</v>
       </c>
       <c r="R859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860">
@@ -49190,7 +49190,7 @@
         <v>2</v>
       </c>
       <c r="R870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871">
@@ -49694,7 +49694,7 @@
         <v>2</v>
       </c>
       <c r="R879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880">
@@ -50254,7 +50254,7 @@
         <v>1</v>
       </c>
       <c r="R889" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890">
@@ -51206,7 +51206,7 @@
         <v>1</v>
       </c>
       <c r="R906" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907">
@@ -52158,7 +52158,7 @@
         <v>2</v>
       </c>
       <c r="R923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924">
@@ -52382,7 +52382,7 @@
         <v>1</v>
       </c>
       <c r="R927" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928">
@@ -52830,7 +52830,7 @@
         <v>2</v>
       </c>
       <c r="R935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936">
@@ -53334,7 +53334,7 @@
         <v>1</v>
       </c>
       <c r="R944" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="945">
@@ -53558,7 +53558,7 @@
         <v>2</v>
       </c>
       <c r="R948" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="949">
@@ -53726,7 +53726,7 @@
         <v>1</v>
       </c>
       <c r="R951" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952">
@@ -54006,7 +54006,7 @@
         <v>2</v>
       </c>
       <c r="R956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="957">
@@ -54062,7 +54062,7 @@
         <v>1</v>
       </c>
       <c r="R957" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958">
@@ -55630,7 +55630,7 @@
         <v>2</v>
       </c>
       <c r="R985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986">
@@ -56302,7 +56302,7 @@
         <v>1</v>
       </c>
       <c r="R997" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="998">
@@ -56582,7 +56582,7 @@
         <v>2</v>
       </c>
       <c r="R1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003">
@@ -56862,7 +56862,7 @@
         <v>1</v>
       </c>
       <c r="R1007" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1008">
@@ -57030,7 +57030,7 @@
         <v>2</v>
       </c>
       <c r="R1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011">
@@ -57366,7 +57366,7 @@
         <v>1</v>
       </c>
       <c r="R1016" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1017">
@@ -57478,7 +57478,7 @@
         <v>2</v>
       </c>
       <c r="R1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019">
@@ -58430,7 +58430,7 @@
         <v>1</v>
       </c>
       <c r="R1035" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036">
@@ -59102,7 +59102,7 @@
         <v>2</v>
       </c>
       <c r="R1047" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1048">
@@ -59494,7 +59494,7 @@
         <v>1</v>
       </c>
       <c r="R1054" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055">
@@ -59550,7 +59550,7 @@
         <v>2</v>
       </c>
       <c r="R1055" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1056">
@@ -60222,7 +60222,7 @@
         <v>2</v>
       </c>
       <c r="R1067" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1068">
@@ -60278,7 +60278,7 @@
         <v>1</v>
       </c>
       <c r="R1068" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1069">
@@ -60670,7 +60670,7 @@
         <v>2</v>
       </c>
       <c r="R1075" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1076">
@@ -61006,7 +61006,7 @@
         <v>2</v>
       </c>
       <c r="R1081" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1082">
@@ -61566,7 +61566,7 @@
         <v>2</v>
       </c>
       <c r="R1091" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1092">
@@ -62014,7 +62014,7 @@
         <v>2</v>
       </c>
       <c r="R1099" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1100">
@@ -62238,7 +62238,7 @@
         <v>1</v>
       </c>
       <c r="R1103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1104">
@@ -62406,7 +62406,7 @@
         <v>2</v>
       </c>
       <c r="R1106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1107">
@@ -62910,7 +62910,7 @@
         <v>1</v>
       </c>
       <c r="R1115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1116">
@@ -63078,7 +63078,7 @@
         <v>2</v>
       </c>
       <c r="R1118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1119">
@@ -63694,7 +63694,7 @@
         <v>1</v>
       </c>
       <c r="R1129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1130">
@@ -64030,7 +64030,7 @@
         <v>1</v>
       </c>
       <c r="R1135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1136">
@@ -64422,7 +64422,7 @@
         <v>1</v>
       </c>
       <c r="R1142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1143">
@@ -64534,7 +64534,7 @@
         <v>2</v>
       </c>
       <c r="R1144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1145">
@@ -65262,7 +65262,7 @@
         <v>2</v>
       </c>
       <c r="R1157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1158">
@@ -66214,7 +66214,7 @@
         <v>2</v>
       </c>
       <c r="R1174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1175">
@@ -66606,7 +66606,7 @@
         <v>1</v>
       </c>
       <c r="R1181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1182">
@@ -67222,7 +67222,7 @@
         <v>2</v>
       </c>
       <c r="R1192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1193">
@@ -67446,7 +67446,7 @@
         <v>1</v>
       </c>
       <c r="R1196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1197">
@@ -67670,7 +67670,7 @@
         <v>2</v>
       </c>
       <c r="R1200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1201">
@@ -67950,7 +67950,7 @@
         <v>1</v>
       </c>
       <c r="R1205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1206">
@@ -68622,7 +68622,7 @@
         <v>2</v>
       </c>
       <c r="R1217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1218">
@@ -69182,7 +69182,7 @@
         <v>1</v>
       </c>
       <c r="R1227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228">
@@ -70246,7 +70246,7 @@
         <v>2</v>
       </c>
       <c r="R1246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1247">
@@ -70918,7 +70918,7 @@
         <v>1</v>
       </c>
       <c r="R1258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1259">
@@ -71142,7 +71142,7 @@
         <v>2</v>
       </c>
       <c r="R1262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1263">
@@ -71702,7 +71702,7 @@
         <v>1</v>
       </c>
       <c r="R1272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1273">
@@ -71926,7 +71926,7 @@
         <v>2</v>
       </c>
       <c r="R1276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1277">
@@ -72318,7 +72318,7 @@
         <v>2</v>
       </c>
       <c r="R1283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1284">
@@ -73158,7 +73158,7 @@
         <v>1</v>
       </c>
       <c r="R1298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1299">
@@ -73886,7 +73886,7 @@
         <v>2</v>
       </c>
       <c r="R1311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1312">
@@ -74166,7 +74166,7 @@
         <v>1</v>
       </c>
       <c r="R1316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1317">
@@ -74446,7 +74446,7 @@
         <v>2</v>
       </c>
       <c r="R1321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1322">
@@ -74782,7 +74782,7 @@
         <v>1</v>
       </c>
       <c r="R1327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1328">
@@ -75454,7 +75454,7 @@
         <v>2</v>
       </c>
       <c r="R1339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1340">
@@ -75846,7 +75846,7 @@
         <v>1</v>
       </c>
       <c r="R1346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1347">
@@ -76182,7 +76182,7 @@
         <v>2</v>
       </c>
       <c r="R1352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1353">
@@ -77750,7 +77750,7 @@
         <v>2</v>
       </c>
       <c r="R1380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1381">
@@ -78254,7 +78254,7 @@
         <v>1</v>
       </c>
       <c r="R1389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1390">
@@ -78814,7 +78814,7 @@
         <v>2</v>
       </c>
       <c r="R1399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1400">
@@ -79038,7 +79038,7 @@
         <v>1</v>
       </c>
       <c r="R1403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1404">
@@ -79318,7 +79318,7 @@
         <v>2</v>
       </c>
       <c r="R1408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1409">
@@ -79710,7 +79710,7 @@
         <v>1</v>
       </c>
       <c r="R1415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1416">
@@ -80046,7 +80046,7 @@
         <v>2</v>
       </c>
       <c r="R1421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1422">
@@ -80382,7 +80382,7 @@
         <v>1</v>
       </c>
       <c r="R1427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1428">
@@ -82062,7 +82062,7 @@
         <v>2</v>
       </c>
       <c r="R1457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1458">
@@ -82230,7 +82230,7 @@
         <v>1</v>
       </c>
       <c r="R1460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1461">
@@ -82846,7 +82846,7 @@
         <v>2</v>
       </c>
       <c r="R1471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1472">
@@ -83294,7 +83294,7 @@
         <v>1</v>
       </c>
       <c r="R1479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1480">
@@ -83686,7 +83686,7 @@
         <v>2</v>
       </c>
       <c r="R1486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1487">
@@ -83851,7 +83851,9 @@
       <c r="Q1489" t="n">
         <v>0</v>
       </c>
-      <c r="R1489" t="inlineStr"/>
+      <c r="R1489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1490">
       <c r="A1490" s="2" t="n">
@@ -83903,7 +83905,9 @@
       <c r="Q1490" t="n">
         <v>0</v>
       </c>
-      <c r="R1490" t="inlineStr"/>
+      <c r="R1490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1491">
       <c r="A1491" s="2" t="n">
@@ -83955,7 +83959,9 @@
       <c r="Q1491" t="n">
         <v>0</v>
       </c>
-      <c r="R1491" t="inlineStr"/>
+      <c r="R1491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1492">
       <c r="A1492" s="2" t="n">
@@ -84007,7 +84013,9 @@
       <c r="Q1492" t="n">
         <v>0</v>
       </c>
-      <c r="R1492" t="inlineStr"/>
+      <c r="R1492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1493">
       <c r="A1493" s="2" t="n">
@@ -84059,7 +84067,9 @@
       <c r="Q1493" t="n">
         <v>0</v>
       </c>
-      <c r="R1493" t="inlineStr"/>
+      <c r="R1493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1494">
       <c r="A1494" s="2" t="n">
@@ -84111,7 +84121,9 @@
       <c r="Q1494" t="n">
         <v>2</v>
       </c>
-      <c r="R1494" t="inlineStr"/>
+      <c r="R1494" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1495">
       <c r="A1495" s="2" t="n">
@@ -84163,7 +84175,9 @@
       <c r="Q1495" t="n">
         <v>0</v>
       </c>
-      <c r="R1495" t="inlineStr"/>
+      <c r="R1495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1496">
       <c r="A1496" s="2" t="n">
@@ -84215,7 +84229,9 @@
       <c r="Q1496" t="n">
         <v>0</v>
       </c>
-      <c r="R1496" t="inlineStr"/>
+      <c r="R1496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1497">
       <c r="A1497" s="2" t="n">
@@ -84267,7 +84283,9 @@
       <c r="Q1497" t="n">
         <v>0</v>
       </c>
-      <c r="R1497" t="inlineStr"/>
+      <c r="R1497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1498">
       <c r="A1498" s="2" t="n">
@@ -84319,7 +84337,9 @@
       <c r="Q1498" t="n">
         <v>0</v>
       </c>
-      <c r="R1498" t="inlineStr"/>
+      <c r="R1498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1499">
       <c r="A1499" s="2" t="n">
@@ -84371,7 +84391,9 @@
       <c r="Q1499" t="n">
         <v>0</v>
       </c>
-      <c r="R1499" t="inlineStr"/>
+      <c r="R1499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1500">
       <c r="A1500" s="2" t="n">
@@ -84423,7 +84445,9 @@
       <c r="Q1500" t="n">
         <v>0</v>
       </c>
-      <c r="R1500" t="inlineStr"/>
+      <c r="R1500" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1501">
       <c r="A1501" s="2" t="n">
@@ -84475,7 +84499,9 @@
       <c r="Q1501" t="n">
         <v>0</v>
       </c>
-      <c r="R1501" t="inlineStr"/>
+      <c r="R1501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1502">
       <c r="A1502" s="2" t="n">
@@ -84527,7 +84553,9 @@
       <c r="Q1502" t="n">
         <v>0</v>
       </c>
-      <c r="R1502" t="inlineStr"/>
+      <c r="R1502" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1503">
       <c r="A1503" s="2" t="n">
@@ -84579,7 +84607,9 @@
       <c r="Q1503" t="n">
         <v>0</v>
       </c>
-      <c r="R1503" t="inlineStr"/>
+      <c r="R1503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1504">
       <c r="A1504" s="2" t="n">
@@ -84631,7 +84661,9 @@
       <c r="Q1504" t="n">
         <v>0</v>
       </c>
-      <c r="R1504" t="inlineStr"/>
+      <c r="R1504" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1505">
       <c r="A1505" s="2" t="n">
@@ -84683,7 +84715,9 @@
       <c r="Q1505" t="n">
         <v>2</v>
       </c>
-      <c r="R1505" t="inlineStr"/>
+      <c r="R1505" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1506">
       <c r="A1506" s="2" t="n">
@@ -84735,7 +84769,9 @@
       <c r="Q1506" t="n">
         <v>0</v>
       </c>
-      <c r="R1506" t="inlineStr"/>
+      <c r="R1506" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1507">
       <c r="A1507" s="2" t="n">
@@ -84787,7 +84823,9 @@
       <c r="Q1507" t="n">
         <v>0</v>
       </c>
-      <c r="R1507" t="inlineStr"/>
+      <c r="R1507" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1508">
       <c r="A1508" s="2" t="n">
@@ -84839,7 +84877,9 @@
       <c r="Q1508" t="n">
         <v>0</v>
       </c>
-      <c r="R1508" t="inlineStr"/>
+      <c r="R1508" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1509">
       <c r="A1509" s="2" t="n">
@@ -84891,7 +84931,9 @@
       <c r="Q1509" t="n">
         <v>0</v>
       </c>
-      <c r="R1509" t="inlineStr"/>
+      <c r="R1509" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1510">
       <c r="A1510" s="2" t="n">
@@ -84943,7 +84985,9 @@
       <c r="Q1510" t="n">
         <v>0</v>
       </c>
-      <c r="R1510" t="inlineStr"/>
+      <c r="R1510" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1511">
       <c r="A1511" s="2" t="n">
@@ -84995,7 +85039,9 @@
       <c r="Q1511" t="n">
         <v>0</v>
       </c>
-      <c r="R1511" t="inlineStr"/>
+      <c r="R1511" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1512">
       <c r="A1512" s="2" t="n">
@@ -85047,7 +85093,9 @@
       <c r="Q1512" t="n">
         <v>0</v>
       </c>
-      <c r="R1512" t="inlineStr"/>
+      <c r="R1512" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1513">
       <c r="A1513" s="2" t="n">
@@ -85099,7 +85147,9 @@
       <c r="Q1513" t="n">
         <v>0</v>
       </c>
-      <c r="R1513" t="inlineStr"/>
+      <c r="R1513" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1514">
       <c r="A1514" s="2" t="n">
@@ -85151,7 +85201,9 @@
       <c r="Q1514" t="n">
         <v>0</v>
       </c>
-      <c r="R1514" t="inlineStr"/>
+      <c r="R1514" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1515">
       <c r="A1515" s="2" t="n">
@@ -85203,7 +85255,9 @@
       <c r="Q1515" t="n">
         <v>1</v>
       </c>
-      <c r="R1515" t="inlineStr"/>
+      <c r="R1515" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1516">
       <c r="A1516" s="2" t="n">
@@ -85255,7 +85309,9 @@
       <c r="Q1516" t="n">
         <v>0</v>
       </c>
-      <c r="R1516" t="inlineStr"/>
+      <c r="R1516" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1517">
       <c r="A1517" s="2" t="n">
@@ -85307,7 +85363,9 @@
       <c r="Q1517" t="n">
         <v>0</v>
       </c>
-      <c r="R1517" t="inlineStr"/>
+      <c r="R1517" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1518">
       <c r="A1518" s="2" t="n">
@@ -85359,7 +85417,9 @@
       <c r="Q1518" t="n">
         <v>0</v>
       </c>
-      <c r="R1518" t="inlineStr"/>
+      <c r="R1518" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1519">
       <c r="A1519" s="2" t="n">
@@ -85411,7 +85471,9 @@
       <c r="Q1519" t="n">
         <v>2</v>
       </c>
-      <c r="R1519" t="inlineStr"/>
+      <c r="R1519" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1520">
       <c r="A1520" s="2" t="n">
@@ -85463,7 +85525,9 @@
       <c r="Q1520" t="n">
         <v>0</v>
       </c>
-      <c r="R1520" t="inlineStr"/>
+      <c r="R1520" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1521">
       <c r="A1521" s="2" t="n">
@@ -85515,7 +85579,9 @@
       <c r="Q1521" t="n">
         <v>0</v>
       </c>
-      <c r="R1521" t="inlineStr"/>
+      <c r="R1521" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1522">
       <c r="A1522" s="2" t="n">
@@ -85567,7 +85633,9 @@
       <c r="Q1522" t="n">
         <v>0</v>
       </c>
-      <c r="R1522" t="inlineStr"/>
+      <c r="R1522" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1523">
       <c r="A1523" s="2" t="n">
@@ -85619,7 +85687,477 @@
       <c r="Q1523" t="n">
         <v>0</v>
       </c>
-      <c r="R1523" t="inlineStr"/>
+      <c r="R1523" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>75.34999847412109</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>76.40000152587891</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>70.19999694824219</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>75.68000030517578</v>
+      </c>
+      <c r="F1524" t="inlineStr"/>
+      <c r="G1524" t="n">
+        <v>1106366</v>
+      </c>
+      <c r="H1524" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1524" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1524" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1524" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1524" t="inlineStr"/>
+    </row>
+    <row r="1525">
+      <c r="A1525" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1525" t="n">
+        <v>76</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>76.09999847412109</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>68.91999816894531</v>
+      </c>
+      <c r="E1525" t="n">
+        <v>69.75</v>
+      </c>
+      <c r="F1525" t="inlineStr"/>
+      <c r="G1525" t="n">
+        <v>1196271</v>
+      </c>
+      <c r="H1525" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1525" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1525" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1525" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1525" t="inlineStr"/>
+    </row>
+    <row r="1526">
+      <c r="A1526" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1526" t="n">
+        <v>69.90000152587891</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>73.58999633789062</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>67.61000061035156</v>
+      </c>
+      <c r="E1526" t="n">
+        <v>72.48000335693359</v>
+      </c>
+      <c r="F1526" t="inlineStr"/>
+      <c r="G1526" t="n">
+        <v>1383350</v>
+      </c>
+      <c r="H1526" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1526" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1526" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1526" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1526" t="inlineStr"/>
+    </row>
+    <row r="1527">
+      <c r="A1527" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1527" t="n">
+        <v>72.45999908447266</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>73.66999816894531</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>68.09999847412109</v>
+      </c>
+      <c r="E1527" t="n">
+        <v>68.98000335693359</v>
+      </c>
+      <c r="F1527" t="inlineStr"/>
+      <c r="G1527" t="n">
+        <v>2263748</v>
+      </c>
+      <c r="H1527" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1527" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1527" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1527" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1527" t="inlineStr"/>
+    </row>
+    <row r="1528">
+      <c r="A1528" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B1528" t="n">
+        <v>68.98000335693359</v>
+      </c>
+      <c r="C1528" t="n">
+        <v>75.38999938964844</v>
+      </c>
+      <c r="D1528" t="n">
+        <v>68.84999847412109</v>
+      </c>
+      <c r="E1528" t="n">
+        <v>69.66999816894531</v>
+      </c>
+      <c r="F1528" t="inlineStr"/>
+      <c r="G1528" t="n">
+        <v>1415237</v>
+      </c>
+      <c r="H1528" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1528" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1528" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1528" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1528" t="inlineStr"/>
+    </row>
+    <row r="1529">
+      <c r="A1529" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1529" t="n">
+        <v>65.90000152587891</v>
+      </c>
+      <c r="C1529" t="n">
+        <v>72</v>
+      </c>
+      <c r="D1529" t="n">
+        <v>65.09999847412109</v>
+      </c>
+      <c r="E1529" t="n">
+        <v>71.08999633789062</v>
+      </c>
+      <c r="F1529" t="inlineStr"/>
+      <c r="G1529" t="n">
+        <v>779698</v>
+      </c>
+      <c r="H1529" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1529" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1529" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1529" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1529" t="inlineStr"/>
+    </row>
+    <row r="1530">
+      <c r="A1530" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B1530" t="n">
+        <v>71.59999847412109</v>
+      </c>
+      <c r="C1530" t="n">
+        <v>76</v>
+      </c>
+      <c r="D1530" t="n">
+        <v>71.55000305175781</v>
+      </c>
+      <c r="E1530" t="n">
+        <v>75.51999664306641</v>
+      </c>
+      <c r="F1530" t="inlineStr"/>
+      <c r="G1530" t="n">
+        <v>572874</v>
+      </c>
+      <c r="H1530" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1530" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1530" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1530" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1530" t="inlineStr"/>
+    </row>
+    <row r="1531">
+      <c r="A1531" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1531" t="n">
+        <v>75.51999664306641</v>
+      </c>
+      <c r="C1531" t="n">
+        <v>78.98999786376953</v>
+      </c>
+      <c r="D1531" t="n">
+        <v>74.05999755859375</v>
+      </c>
+      <c r="E1531" t="n">
+        <v>74.34999847412109</v>
+      </c>
+      <c r="F1531" t="inlineStr"/>
+      <c r="G1531" t="n">
+        <v>638508</v>
+      </c>
+      <c r="H1531" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1531" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1531" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1531" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1531" t="inlineStr"/>
+    </row>
+    <row r="1532">
+      <c r="A1532" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1532" t="n">
+        <v>74.08999633789062</v>
+      </c>
+      <c r="C1532" t="n">
+        <v>78.43000030517578</v>
+      </c>
+      <c r="D1532" t="n">
+        <v>73.59999847412109</v>
+      </c>
+      <c r="E1532" t="n">
+        <v>74.44999694824219</v>
+      </c>
+      <c r="F1532" t="inlineStr"/>
+      <c r="G1532" t="n">
+        <v>388452</v>
+      </c>
+      <c r="H1532" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1532" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1532" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1532" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1532" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
